--- a/biology/Histoire de la zoologie et de la botanique/Luuk_Tinbergen/Luuk_Tinbergen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Luuk_Tinbergen/Luuk_Tinbergen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luuk Tinbergen, né le 7 septembre 1915 à La Haye et mort le 1er septembre 1955 à Groningue, est un ornithologue néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses deux frères sont Jan Tinbergen (1903-1994), « Prix Nobel » d'économie en 1969 et Nikolaas Tinbergen (1907-1988), prix Nobel de médecine en 1973.
 Il est embauché par Gerard Baerends (1916-1999) de l’université de Groningen. Il y développe d’importants concepts en éthologie. Il se suicide en 1955 à 39 ans.
